--- a/assets/localite-import-exemple.xlsx
+++ b/assets/localite-import-exemple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fieldconnect\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ccbw\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2821EF-E80A-40AB-82B9-FBAFCBD50A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48176526-2B76-4362-9864-B62B57AFBA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import-liste-exemple" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -28,10 +28,16 @@
     <t>nom</t>
   </si>
   <si>
-    <t>OPEPOKRO</t>
+    <t>section</t>
   </si>
   <si>
-    <t>MINANDOU</t>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>GUESSIHIO</t>
+  </si>
+  <si>
+    <t>TCHEDJELET</t>
   </si>
 </sst>
 </file>
@@ -576,10 +582,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="3" xr3:uid="{04F6E199-66BA-4425-8FE9-E6D9DB49A27F}" name="section"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -883,39 +890,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
